--- a/NPB3.3.1/NPB3.3-SER/dstat_seq.xlsx
+++ b/NPB3.3.1/NPB3.3-SER/dstat_seq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="cpu" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="CPU_is.C.x" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-SER/Results/intel/nodo-431/O3/CSV/__cpu_usage/CPU_is.C.x.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-SER/Results/intel/nodo-431/O3/CSV/__cpu_usage/CPU_is.C.x.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -45,7 +45,7 @@
     </textPr>
   </connection>
   <connection id="2" name="DISK_is.C.x" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-SER/Results/intel/nodo-431/O3/CSV/__disk_usage/DISK_is.C.x.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-SER/Results/intel/nodo-431/O3/CSV/__disk_usage/DISK_is.C.x.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
     </textPr>
   </connection>
   <connection id="3" name="MEMORY_is.C.x" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-SER/Results/intel/nodo-431/O3/CSV/__memory_usage/MEMORY_is.C.x.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-SER/Results/intel/nodo-431/O3/CSV/__memory_usage/MEMORY_is.C.x.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -1727,74 +1727,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110330720"/>
-        <c:axId val="-2110328768"/>
+        <c:axId val="2142823456"/>
+        <c:axId val="2141692736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110330720"/>
+        <c:axId val="2142823456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tempo (segundos)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1830,7 +1774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110328768"/>
+        <c:crossAx val="2141692736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110328768"/>
+        <c:axId val="2141692736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,39 +1802,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1920,7 +1833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110330720"/>
+        <c:crossAx val="2142823456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -2596,11 +2509,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2098466960"/>
-        <c:axId val="-2111535328"/>
+        <c:axId val="2141582464"/>
+        <c:axId val="2141576528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098466960"/>
+        <c:axId val="2141582464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,7 +2603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111535328"/>
+        <c:crossAx val="2141576528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2698,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111535328"/>
+        <c:axId val="2141576528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,7 +2634,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2751,7 +2664,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2796,7 +2709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098466960"/>
+        <c:crossAx val="2141582464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -2919,7 +2832,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Uso de Disco</a:t>
+              <a:t>Uso do disco</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2956,7 +2869,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.067438912187607"/>
+          <c:y val="0.0886515641855448"/>
+          <c:w val="0.93050389421431"/>
+          <c:h val="0.802236492283125"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2984,8 +2907,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>disco!$B$4:$B$34</c:f>
@@ -3216,8 +3210,121 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0297554347826087"/>
+                  <c:y val="-0.0302049622437972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0297554347826087"/>
+                  <c:y val="-0.0323624595469256"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>disco!$B$4:$B$34</c:f>
@@ -3425,6 +3532,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3432,73 +3540,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103727616"/>
-        <c:axId val="-2104104512"/>
+        <c:axId val="2141840752"/>
+        <c:axId val="-2109189376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103727616"/>
+        <c:axId val="2141840752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tempo (segundos)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3536,7 +3589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104104512"/>
+        <c:crossAx val="-2109189376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3544,9 +3597,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104104512"/>
+        <c:axId val="-2109189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3564,37 +3618,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3626,7 +3649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103727616"/>
+        <c:crossAx val="2141840752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -3640,7 +3663,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4800,7 +4823,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4908,11 +4931,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4923,11 +4941,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4959,9 +4972,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5320,15 +5330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5390,19 +5400,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5697,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6829,8 +6839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NPB3.3.1/NPB3.3-SER/dstat_seq.xlsx
+++ b/NPB3.3.1/NPB3.3-SER/dstat_seq.xlsx
@@ -17,7 +17,7 @@
     <sheet name="disco" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CPU_is.C.x_1" localSheetId="0">cpu!$C$3:$H$33</definedName>
+    <definedName name="CPU_is.C.x_1" localSheetId="0">cpu!$C$4:$H$34</definedName>
     <definedName name="DISK_is.C.x" localSheetId="2">disco!$C$4:$D$34</definedName>
     <definedName name="MEMORY_is.C.x" localSheetId="1">memoria!$C$3:$D$33</definedName>
   </definedNames>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Tempo</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>write</t>
+  </si>
+  <si>
+    <t>Classe C</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,6 +166,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,7 +229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Uso CPU</a:t>
+              <a:t>Uso do CPU</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -258,7 +275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cpu!$C$2</c:f>
+              <c:f>cpu!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,7 +310,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cpu!$B$3:$B$33</c:f>
+              <c:f>cpu!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -395,7 +412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cpu!$C$3:$C$33</c:f>
+              <c:f>cpu!$C$4:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -502,7 +519,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>cpu!$D$2</c:f>
+              <c:f>cpu!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,7 +554,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cpu!$B$3:$B$33</c:f>
+              <c:f>cpu!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -639,7 +656,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cpu!$D$3:$D$33</c:f>
+              <c:f>cpu!$D$4:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -746,7 +763,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>cpu!$E$2</c:f>
+              <c:f>cpu!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,7 +798,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cpu!$B$3:$B$33</c:f>
+              <c:f>cpu!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -883,7 +900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cpu!$E$3:$E$33</c:f>
+              <c:f>cpu!$E$4:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -990,7 +1007,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>cpu!$F$2</c:f>
+              <c:f>cpu!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1025,7 +1042,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cpu!$B$3:$B$33</c:f>
+              <c:f>cpu!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1127,7 +1144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cpu!$F$3:$F$33</c:f>
+              <c:f>cpu!$F$4:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1234,7 +1251,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>cpu!$G$2</c:f>
+              <c:f>cpu!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1269,7 +1286,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cpu!$B$3:$B$33</c:f>
+              <c:f>cpu!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1371,7 +1388,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cpu!$G$3:$G$33</c:f>
+              <c:f>cpu!$G$4:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1478,7 +1495,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>cpu!$H$2</c:f>
+              <c:f>cpu!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1513,7 +1530,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cpu!$B$3:$B$33</c:f>
+              <c:f>cpu!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1615,7 +1632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cpu!$H$3:$H$33</c:f>
+              <c:f>cpu!$H$4:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1727,16 +1744,77 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142823456"/>
-        <c:axId val="2141692736"/>
+        <c:axId val="-2088763136"/>
+        <c:axId val="-2108488880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142823456"/>
+        <c:axId val="-2088763136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (segundos)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1774,7 +1852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141692736"/>
+        <c:crossAx val="-2108488880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1782,9 +1860,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141692736"/>
+        <c:axId val="-2108488880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1833,7 +1912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142823456"/>
+        <c:crossAx val="-2088763136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -1846,38 +1925,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5330,19 +5377,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5705,10 +5752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H33"/>
+  <dimension ref="B1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5717,183 +5764,322 @@
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>4.0869999999999997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>0.125</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>95.787999999999997</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>4.1669999999999998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>95.75</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.13</v>
       </c>
       <c r="D5" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E5" s="1">
+        <v>95.75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E6" s="1">
         <v>95.786000000000001</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>4.17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>95.787999999999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.13</v>
       </c>
       <c r="D7" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E7" s="1">
+        <v>95.787999999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>95.578000000000003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>0.25</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>4.1669999999999998</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>95.75</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.1680000000000001</v>
       </c>
       <c r="D9" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>95.748000000000005</v>
+        <v>95.75</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5904,19 +6090,36 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>4.1280000000000001</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="D10" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>95.787999999999997</v>
+        <v>95.748000000000005</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -5927,217 +6130,355 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>4.2140000000000004</v>
+        <v>4.1280000000000001</v>
       </c>
       <c r="D11" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E11" s="1">
+        <v>95.787999999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>95.703000000000003</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>4.17</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>95.787999999999997</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>4.1680000000000001</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>95.748000000000005</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>4.17</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>95.662999999999997</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>0.125</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>4.1280000000000001</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>95.787999999999997</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>3.835</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>95.748000000000005</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>4.1280000000000001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>95.83</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>4.1680000000000001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>95.748000000000005</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
         <v>17</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>95.787999999999997</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>4.17</v>
@@ -6157,125 +6498,131 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>95.787999999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>4.2080000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>95.707999999999998</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.17</v>
       </c>
       <c r="D22" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E22" s="1">
+        <v>95.707999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E23" s="1">
         <v>95.745999999999995</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>4.1719999999999997</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>95.786000000000001</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>4.1740000000000004</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>95.825999999999993</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
         <v>23</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4.1719999999999997</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>95.786000000000001</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>4.1719999999999997</v>
@@ -6295,19 +6642,20 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>4.1680000000000001</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="D27" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>95.79</v>
+        <v>95.786000000000001</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -6318,102 +6666,107 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>4.2080000000000002</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="D28" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E28" s="1">
+        <v>95.79</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.2080000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E29" s="1">
         <v>95.75</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>4.1719999999999997</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>95.828000000000003</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>4.1680000000000001</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>95.748000000000005</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
         <v>29</v>
-      </c>
-      <c r="C31" s="1">
-        <v>4.17</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>95.787999999999997</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="1">
-        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>4.17</v>
@@ -6433,31 +6786,60 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>4.17</v>
       </c>
       <c r="D33" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>95.787999999999997</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="D34" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>95.745999999999995</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/NPB3.3.1/NPB3.3-SER/dstat_seq.xlsx
+++ b/NPB3.3.1/NPB3.3-SER/dstat_seq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cpu" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,12 +215,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -229,7 +226,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Uso do CPU</a:t>
+              <a:t>Percentagem de Uso do CPU</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -248,12 +245,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -267,8 +261,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -285,131 +280,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cpu!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>cpu!$C$4:$C$34</c:f>
@@ -512,7 +414,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -529,131 +430,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cpu!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>cpu!$D$4:$D$34</c:f>
@@ -756,7 +564,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -773,131 +580,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cpu!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>cpu!$E$4:$E$34</c:f>
@@ -1000,7 +714,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1017,131 +730,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cpu!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>cpu!$F$4:$F$34</c:f>
@@ -1244,7 +864,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1261,131 +880,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cpu!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>cpu!$G$4:$G$34</c:f>
@@ -1488,7 +1014,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1505,131 +1030,38 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>cpu!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>cpu!$H$4:$H$34</c:f>
@@ -1732,7 +1164,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1742,13 +1173,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2088763136"/>
-        <c:axId val="-2108488880"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2032081024"/>
+        <c:axId val="2090535312"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2088763136"/>
+        <c:axId val="2032081024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,12 +1192,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1775,13 +1203,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tempo</a:t>
+                  <a:t>Tempo (segundos)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (segundos)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1799,12 +1222,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1815,7 +1235,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1823,7 +1242,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1839,10 +1258,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1852,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108488880"/>
+        <c:crossAx val="2090535312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,10 +1276,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108488880"/>
+        <c:axId val="2090535312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1871,7 +1286,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1881,7 +1296,57 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentagem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1899,10 +1364,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1912,10 +1374,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088763136"/>
+        <c:crossAx val="2032081024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0"/>
+        <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1925,6 +1387,44 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.454890448476549"/>
+          <c:y val="0.935544513246524"/>
+          <c:w val="0.204349430845601"/>
+          <c:h val="0.0407230164190641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1935,7 +1435,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1994,6 +1494,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Percentagem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Uso</a:t>
             </a:r>
             <a:r>
@@ -2008,7 +1516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,11 +2063,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141582464"/>
-        <c:axId val="2141576528"/>
+        <c:axId val="2090611008"/>
+        <c:axId val="2090616912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141582464"/>
+        <c:axId val="2090611008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2096,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2650,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141576528"/>
+        <c:crossAx val="2090616912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2658,7 +2164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141576528"/>
+        <c:axId val="2090616912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,12 +2202,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentagem de Uso</a:t>
+                  <a:t>Percentagem</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2756,7 +2261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141582464"/>
+        <c:crossAx val="2090611008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.05"/>
@@ -2916,17 +2421,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.067438912187607"/>
-          <c:y val="0.0886515641855448"/>
-          <c:w val="0.93050389421431"/>
-          <c:h val="0.802236492283125"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2968,65 +2463,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>disco!$B$4:$B$34</c:f>
@@ -3271,107 +2707,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0297554347826087"/>
-                  <c:y val="-0.0302049622437972"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0297554347826087"/>
-                  <c:y val="-0.0323624595469256"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>disco!$B$4:$B$34</c:f>
@@ -3579,7 +2914,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3589,16 +2923,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141840752"/>
-        <c:axId val="-2109189376"/>
+        <c:axId val="2090688144"/>
+        <c:axId val="2090693776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141840752"/>
+        <c:axId val="2090688144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3636,7 +3026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109189376"/>
+        <c:crossAx val="2090693776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3644,7 +3034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109189376"/>
+        <c:axId val="2090693776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000.0"/>
@@ -3665,6 +3055,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamanho (Bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3696,7 +3142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141840752"/>
+        <c:crossAx val="2090688144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
@@ -3710,7 +3156,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3899,33 +3345,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3940,7 +3380,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3948,7 +3388,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3956,17 +3396,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -3975,9 +3412,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4000,35 +3436,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4037,33 +3473,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4079,21 +3514,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4127,17 +3557,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4146,14 +3576,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4165,26 +3594,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4198,96 +3621,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4295,17 +3721,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4314,12 +3740,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4328,14 +3751,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4344,10 +3767,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -4356,7 +3776,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4377,10 +3797,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -4389,14 +3806,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5376,20 +4787,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5754,8 +5165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5782,51 +5193,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -5850,23 +5261,23 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -5890,23 +5301,23 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="7"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -5930,23 +5341,23 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -5970,23 +5381,23 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -6010,23 +5421,23 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -6050,23 +5461,23 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -6090,23 +5501,23 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -6130,23 +5541,23 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="7"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
@@ -6170,23 +5581,23 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -6210,23 +5621,23 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -6250,23 +5661,23 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
@@ -6290,23 +5701,23 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -6330,23 +5741,23 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -6370,23 +5781,23 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -6410,23 +5821,23 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -6450,7 +5861,7 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -6474,7 +5885,7 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -6498,7 +5909,7 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
@@ -6522,7 +5933,7 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -6546,7 +5957,7 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -6570,7 +5981,7 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -6594,7 +6005,7 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
@@ -6618,7 +6029,7 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
@@ -6642,7 +6053,7 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
@@ -6666,7 +6077,7 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
@@ -6690,7 +6101,7 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -6714,7 +6125,7 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
@@ -6738,7 +6149,7 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
@@ -6762,7 +6173,7 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
@@ -6786,7 +6197,7 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
@@ -6810,7 +6221,7 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -6834,7 +6245,7 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7221,7 +6632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
